--- a/Risk_metrics.xlsx
+++ b/Risk_metrics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Sergio/Documents/Master_QF/Thesis/Code/Crossover/Walk-forward-optimization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A78102A9-5290-194C-BBFE-10FF4DAE20A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321C3782-F3EF-E842-9899-BB4FCDD24F1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+  <si>
+    <t>Ann_ret (%)</t>
+  </si>
+  <si>
+    <t>SP500 ret (%)</t>
+  </si>
   <si>
     <t>SR</t>
   </si>
@@ -71,13 +77,193 @@
   </si>
   <si>
     <t>2020-2020</t>
+  </si>
+  <si>
+    <r>
+      <t>total_returns</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF005CC5"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6F42C1"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>abs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>(max_dd)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>diff_rets.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6F42C1"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>mean</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">() </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF005CC5"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> diff_rets.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6F42C1"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>std</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>def</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6F42C1"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>sharpe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>(returns, rf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF005CC5"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>=0.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>, periods</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF005CC5"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>=252</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>, annualize</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF005CC5"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>=True</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>):</t>
+    </r>
+  </si>
+  <si>
+    <t>Strat-Bench</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,6 +275,30 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF24292E"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF005CC5"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF6F42C1"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFD73A49"/>
+      <name val="Consolas"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -126,11 +336,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,19 +645,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -479,233 +697,293 @@
       <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2">
+        <v>9.07</v>
+      </c>
+      <c r="C2">
+        <v>12.31</v>
+      </c>
+      <c r="D2">
         <v>1.11496</v>
       </c>
-      <c r="C2">
+      <c r="E2">
         <v>-0.13339000000000001</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>0</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>-6.1700000000000001E-3</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>-8.0199999999999994E-3</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>-1.149E-2</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>-1.2760000000000001E-2</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>5.1832000000000003</v>
       </c>
-      <c r="J2">
+      <c r="L2">
         <v>3.4927600000000001</v>
       </c>
-      <c r="K2">
+      <c r="M2">
         <v>6.2672699999999999</v>
       </c>
-      <c r="L2">
+      <c r="N2">
         <v>-2.5270000000000001E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3">
+        <v>14.27</v>
+      </c>
+      <c r="C3">
+        <v>3.78</v>
+      </c>
+      <c r="D3">
         <v>1.6189800000000001</v>
       </c>
-      <c r="C3">
+      <c r="E3">
         <v>-0.14141000000000001</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>0</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>-6.3099999999999996E-3</v>
       </c>
-      <c r="F3">
+      <c r="H3">
         <v>-8.2500000000000004E-3</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>-1.1900000000000001E-2</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>-1.2869999999999999E-2</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>7.4048400000000001</v>
       </c>
-      <c r="J3">
+      <c r="L3">
         <v>4.1839300000000001</v>
       </c>
-      <c r="K3">
+      <c r="M3">
         <v>144.85516999999999</v>
       </c>
-      <c r="L3">
+      <c r="N3">
         <v>6.2050000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4">
+        <v>11.59</v>
+      </c>
+      <c r="C4">
+        <v>14.8</v>
+      </c>
+      <c r="D4">
         <v>0.85867000000000004</v>
       </c>
-      <c r="C4">
+      <c r="E4">
         <v>-0.33341999999999999</v>
       </c>
-      <c r="D4">
+      <c r="F4">
         <v>0</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>-1.073E-2</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>-1.3899999999999999E-2</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>-1.9859999999999999E-2</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>-2.2530000000000001E-2</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>4.6710099999999999</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <v>3.7894999999999999</v>
       </c>
-      <c r="K4">
+      <c r="M4">
         <v>16.33436</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>-2.7130000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B5">
+        <v>-7.73</v>
+      </c>
+      <c r="C5">
+        <v>-15.71</v>
+      </c>
+      <c r="D5">
         <v>-0.30558000000000002</v>
       </c>
-      <c r="C5">
+      <c r="E5">
         <v>-0.34955000000000003</v>
       </c>
-      <c r="D5">
+      <c r="F5">
         <v>0</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>-1.455E-2</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>-1.8610000000000002E-2</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>-2.623E-2</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>-2.5839999999999998E-2</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>6.5144299999999999</v>
       </c>
-      <c r="J5">
+      <c r="L5">
         <v>2.8285800000000001</v>
       </c>
-      <c r="K5">
+      <c r="M5">
         <v>-0.53924000000000005</v>
       </c>
-      <c r="L5">
+      <c r="N5">
         <v>3.7569999999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B6">
+        <v>3.57</v>
+      </c>
+      <c r="C6">
+        <v>7.17</v>
+      </c>
+      <c r="D6">
         <v>0.30326999999999998</v>
       </c>
-      <c r="C6">
+      <c r="E6">
         <v>-0.51227</v>
       </c>
-      <c r="D6">
+      <c r="F6">
         <v>0</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <v>-1.1860000000000001E-2</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>-1.5270000000000001E-2</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>-2.1669999999999998E-2</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>-2.571E-2</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>5.3230000000000004</v>
       </c>
-      <c r="J6">
+      <c r="L6">
         <v>4.13401</v>
       </c>
-      <c r="K6">
+      <c r="M6">
         <v>1.5298700000000001</v>
       </c>
-      <c r="L6">
+      <c r="N6">
         <v>-2.9850000000000002E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B7">
+        <v>5.38</v>
+      </c>
+      <c r="C7">
+        <v>-5.33</v>
+      </c>
+      <c r="D7">
         <v>0.71257999999999999</v>
       </c>
-      <c r="C7">
+      <c r="E7">
         <v>-7.6789999999999997E-2</v>
       </c>
-      <c r="D7">
+      <c r="F7">
         <v>0</v>
       </c>
-      <c r="E7">
+      <c r="G7">
         <v>-1.6230000000000001E-2</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>-2.1000000000000001E-2</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <v>-2.9950000000000001E-2</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <v>-3.1789999999999999E-2</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>5.5904299999999996</v>
       </c>
-      <c r="J7">
+      <c r="L7">
         <v>3.9174799999999999</v>
       </c>
-      <c r="K7">
+      <c r="M7">
         <v>0.70123000000000002</v>
       </c>
-      <c r="L7">
+      <c r="N7">
         <v>2.3120000000000002E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="M9" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="D11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
